--- a/results_exact/2_origem_transbordo.xlsx
+++ b/results_exact/2_origem_transbordo.xlsx
@@ -444,14 +444,14 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -459,42 +459,42 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paraúna, GO, Brazil</t>
+          <t>Padre Bernardo, GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9093.856612054631</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>132460.7033879454</v>
       </c>
       <c r="E2" t="n">
-        <v>300804.96</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -509,14 +509,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caldas Novas, GO, Brazil</t>
+          <t>Niquelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>124868</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -537,7 +537,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quirinópolis, GO, Brazil</t>
+          <t>Santa Helena de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>58869.6</v>
+        <v>131920.8</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Goiatuba, GO, Brazil</t>
+          <t>Cristalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>221493.5526120546</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Piracanjuba, GO, Brazil</t>
+          <t>Gameleira de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>69926.08</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -621,14 +621,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Santa Cruz de Goiás, GO, Brazil</t>
+          <t>Bom Jesus de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50682.88</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -649,14 +649,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Orizona, GO, Brazil</t>
+          <t>Vicentinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>18923.21200000004</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -677,20 +677,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Perolândia, GO, Brazil</t>
+          <t>Itaberaí, GO, Brazil</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>48419.6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>99059.92</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acreúna, GO, Brazil</t>
+          <t>Morrinhos, GO, Brazil</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>124916.64</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -733,17 +733,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Padre Bernardo, GO, Brazil</t>
+          <t>Ipameri, GO, Brazil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>34421.13200000003</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>141554.56</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -761,14 +761,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vianópolis, GO, Brazil</t>
+          <t>Montes Claros de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>108798.56</v>
+        <v>88170.33600000001</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chapadão do Céu, GO, Brazil</t>
+          <t>Doverlândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>46843.36</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ipameri, GO, Brazil</t>
+          <t>Paraúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>300804.96</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -845,17 +845,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Itaberaí, GO, Brazil</t>
+          <t>Palmeiras de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>86804.16</v>
       </c>
       <c r="D15" t="n">
-        <v>48419.6</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cristalina, GO, Brazil</t>
+          <t>Serranópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>80596.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Montes Claros de Goiás, GO, Brazil</t>
+          <t>Acreúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>88170.33600000001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>124916.64</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Edéia, GO, Brazil</t>
+          <t>São João d'Aliança, GO, Brazil</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94696</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Doverlândia, GO, Brazil</t>
+          <t>Turvelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46843.36</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>64432.8</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bela Vista de Goiás, GO, Brazil</t>
+          <t>Caldas Novas, GO, Brazil</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1013,7 +1013,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santa Helena de Goiás, GO, Brazil</t>
+          <t>Goiatuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>131920.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mineiros, GO, Brazil</t>
+          <t>Joviânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>264639.6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Itumbiara, GO, Brazil</t>
+          <t>Uruaçu, GO, Brazil</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>59553.6</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Montividiu, GO, Brazil</t>
+          <t>Edealina, GO, Brazil</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>349195.68</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>10948</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1125,23 +1125,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jataí, GO, Brazil</t>
+          <t>Cabeceiras, GO, Brazil</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75072.8</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>459481.836</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>344157.364</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Catalão, GO, Brazil</t>
+          <t>Água Fria de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>102098.4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Caiapônia, GO, Brazil</t>
+          <t>Orizona, GO, Brazil</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>93300.64</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157852</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vicentinópolis, GO, Brazil</t>
+          <t>Caiapônia, GO, Brazil</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>157852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1237,11 +1237,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bom Jesus de Goiás, GO, Brazil</t>
+          <t>Santa Cruz de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>50682.88</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Palmeiras de Goiás, GO, Brazil</t>
+          <t>Montividiu, GO, Brazil</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>61003.52799999995</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>349195.68</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>25800.63200000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rio Verde, GO, Brazil</t>
+          <t>Vianópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>947522.4</v>
+        <v>108798.56</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Niquelândia, GO, Brazil</t>
+          <t>Mineiros, GO, Brazil</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>124868</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1343,26 +1343,26 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>264639.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Turvelândia, GO, Brazil</t>
+          <t>Piracanjuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5258.155999999755</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>64432.8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Edealina, GO, Brazil</t>
+          <t>Catalão, GO, Brazil</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1405,7 +1405,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portelândia, GO, Brazil</t>
+          <t>Pontalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>61172.4</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>São João d'Aliança, GO, Brazil</t>
+          <t>Portelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1452,26 +1452,26 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>30761.2648699971</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>61172.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruaçu, GO, Brazil</t>
+          <t>Luziânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>165041.6</v>
       </c>
       <c r="D37" t="n">
-        <v>59553.6</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pontalina, GO, Brazil</t>
+          <t>Jataí, GO, Brazil</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1505,32 +1505,32 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>532028.4999999998</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271610.7000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gameleira de Goiás, GO, Brazil</t>
+          <t>Silvânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>13071.84799999994</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>185956.952</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>69926.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Serranópolis, GO, Brazil</t>
+          <t>Perolândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8049.816000000166</v>
+        <v>99059.92</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cabeceiras, GO, Brazil</t>
+          <t>Rio Verde, GO, Brazil</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>947522.4</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Água Fria de Goiás, GO, Brazil</t>
+          <t>Bela Vista de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>102098.4</v>
+        <v>48903.72</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joviânia, GO, Brazil</t>
+          <t>Quirinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>58869.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Morrinhos, GO, Brazil</t>
+          <t>Chapadão do Céu, GO, Brazil</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1685,7 +1685,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Silvânia, GO, Brazil</t>
+          <t>Edéia, GO, Brazil</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1701,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>65679.2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>199028.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Campo Alegre de Goiás, GO, Brazil</t>
+          <t>Itumbiara, GO, Brazil</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1741,7 +1741,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luziânia, GO, Brazil</t>
+          <t>Campo Alegre de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1788,14 +1788,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>721410.8016544231</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7528108.516040851</v>
       </c>
       <c r="D2" t="n">
-        <v>10288911.27445802</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8782433.375991084</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1619748.868390618</v>
+        <v>2720363.686428505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>20830863.85633291</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5449101.715752359</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1349469.395230381</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>538117.5726669601</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4284321.444328976</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3839717.238516025</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3410872.607645364</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>525610.4181989864</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8044937.565365476</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>3826601.997631808</v>
+        <v>9666464.991903936</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2432937.151252837</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>10288911.27445802</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9095268.477993559</v>
       </c>
       <c r="C15" t="n">
-        <v>3195047.50913244</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4185168.145238818</v>
       </c>
     </row>
     <row r="17">
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4445291.511222058</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3410872.607645364</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6921766.595004721</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2432937.151252837</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1709693.118894456</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2720363.686428505</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15709176.48499315</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2071451.197421997</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>7915836.090287932</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>442649.5741491126</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2356,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8512897.607964963</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13349872.42791435</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15240984.9120916</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6878460.051798791</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>2653181.390404218</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6687156.994889905</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6687156.994889905</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1349469.395230381</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2543372.103932638</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7915836.090287932</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>944870.9457255538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14468659.68605875</v>
+        <v>2939123.578351854</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5973334.214905053</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15709176.48499315</v>
       </c>
     </row>
     <row r="33">
@@ -2540,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>585611.8719327415</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1709693.118894456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3886394.276011742</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2621,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3364437.013595205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3886394.276011742</v>
       </c>
     </row>
     <row r="37">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17506224.20912256</v>
       </c>
       <c r="C37" t="n">
-        <v>2071451.197421997</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2664,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>15457656.96604082</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>12028260.945951</v>
       </c>
     </row>
     <row r="39">
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1365925.954933386</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4765462.861541801</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1609883.876058655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>418006.2640233724</v>
+        <v>3839717.238516025</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14468659.68605875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>6878460.051798791</v>
+        <v>4087640.453570582</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1619748.868390618</v>
       </c>
     </row>
     <row r="44">
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2353316.185845585</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>5100451.177416753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2902,14 +2902,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>IPAMERI,GO, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IPAMERI,GO, Brazil</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PORANGATU, GO, Brazil</t>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ANÁPOLIS, GO, Brazil</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PORTO NACIONAL, TO, Brazil</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SÃO SIMÃO, GO, Brazil</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PORTO NACIONAL, TO, Brazil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
     </row>
@@ -2941,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>206223400589.8639</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1948938226423.943</v>
       </c>
       <c r="D2" t="n">
-        <v>2016265015910.924</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2434015749740.4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>255168811226.088</v>
+        <v>249902513193.168</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6176870860209.059</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1551002621224.762</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>203743445765.9904</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>88203387085.31213</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3102,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1254923160102.048</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>823789929268.0344</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>532206281679.3936</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2082739152461.184</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>766503740595.2784</v>
+        <v>2945338771201.943</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>608048835737.2704</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2016265015910.924</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2750518738082.765</v>
       </c>
       <c r="C15" t="n">
-        <v>869317342602.576</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1045886739767.885</v>
       </c>
     </row>
     <row r="17">
@@ -3292,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1097029724899.792</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>532206281679.3936</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1938433130355.12</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>608048835737.2704</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>256936781591.352</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>249902513193.168</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4130549143796.376</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>411375173128.272</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3453,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>914608499171.7024</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>97518408870.12001</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -3470,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2607773169845.184</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2242106819234.528</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3534965517625.613</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1883087960771.952</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>434885603206.6512</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1513983564170.16</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1513983564170.16</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>203743445765.9904</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>570598650742.4321</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>914608499171.7024</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>195018443986.9727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>452334062682.4032</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1439587311266.64</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4130549143796.376</v>
       </c>
     </row>
     <row r="33">
@@ -3654,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>178884553766.6187</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>256936781591.352</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1045119149340.48</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1024735868278.049</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1045119149340.48</v>
       </c>
     </row>
     <row r="37">
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5305097385149.089</v>
       </c>
       <c r="C37" t="n">
-        <v>411375173128.272</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3778,13 +3778,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2596108560594.149</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2789812333401.518</v>
       </c>
     </row>
     <row r="39">
@@ -3792,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>412879949517.0872</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>681774213002.0682</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>191909480557.1328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104461085793.9643</v>
+        <v>823789929268.0344</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1883087960771.952</v>
+        <v>1182680608414.867</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>255168811226.088</v>
       </c>
     </row>
     <row r="44">
@@ -3939,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>478043466812.352</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>729699546187.152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4027,10 +4027,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1274733769.006289</v>
+        <v>1158716706.325241</v>
       </c>
       <c r="B2" t="n">
-        <v>191014291624102.9</v>
+        <v>169129611401992.3</v>
       </c>
     </row>
   </sheetData>
